--- a/assets/document/data-latih/Book4.xlsx
+++ b/assets/document/data-latih/Book4.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arlan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB580A94-D8D4-4D7A-8494-79A53B8C5764}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8AE08785-6FAB-4554-81B8-ED8255731631}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-3090" windowWidth="29040" windowHeight="16080" xr2:uid="{88D7D93B-9FFC-4FC6-9378-B20AD1CF9CA5}"/>
+    <workbookView xWindow="-26475" yWindow="-1800" windowWidth="20700" windowHeight="11565" xr2:uid="{F3081F46-419B-43B1-92F3-1E486A67DC2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -561,10 +561,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64E26F85-8716-4DBD-AA04-E765A6BD84F3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEC53FE6-ECD8-4F7B-AEF2-34422782FC7D}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:M50"/>
     </sheetView>
   </sheetViews>
